--- a/student_data.xlsx
+++ b/student_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,30 +449,35 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Registration Date</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Phone Number</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>University</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Student No</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Skill</t>
         </is>
@@ -484,24 +489,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>John</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Doe</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>01/11/2003</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>07/02/2025</t>
@@ -509,152 +514,32 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sue@gmail.com</t>
+          <t>john@gmail.com</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5555555</t>
+          <t>555555</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AAU</t>
+          <t>au</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1121</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Python</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Anna</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>01/02/2002</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Wolf</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>07/02/2025</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>anna@gmail.com</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>BBU</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>C++</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Belatrix</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>01/02/2003</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bel</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>07/02/2025</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>belatrix@gmail.com</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>6666</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>AAU</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>5555</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Python</t>
+          <t>python</t>
         </is>
       </c>
     </row>
